--- a/src/main/resources/python/MultifacetedModeling/RuleExtraction/GPR/pred.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/RuleExtraction/GPR/pred.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +455,7 @@
         <v>1.6015625</v>
       </c>
       <c r="B2" t="n">
-        <v>138.1963128328143</v>
+        <v>138.1963128328142</v>
       </c>
       <c r="C2" t="n">
         <v>0.03158914384996765</v>
@@ -466,10 +466,10 @@
         <v>1.357421875</v>
       </c>
       <c r="B3" t="n">
-        <v>68.63352686121975</v>
+        <v>68.63352686121971</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02760703005160541</v>
+        <v>0.02760703005160943</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>1.435546875</v>
       </c>
       <c r="B4" t="n">
-        <v>127.3506237649002</v>
+        <v>127.3506237649005</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03157438311080361</v>
+        <v>0.03157438311080536</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>1.396484375</v>
       </c>
       <c r="B5" t="n">
-        <v>43.99865339996279</v>
+        <v>43.998653399963</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0307111062972239</v>
+        <v>0.0307111062972221</v>
       </c>
     </row>
     <row r="6">
@@ -499,7 +499,7 @@
         <v>1.083984375</v>
       </c>
       <c r="B6" t="n">
-        <v>20.6613973062536</v>
+        <v>20.66139730625355</v>
       </c>
       <c r="C6" t="n">
         <v>0.03158791439735859</v>
@@ -510,10 +510,10 @@
         <v>0.91796875</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.007835469645225857</v>
+        <v>-0.007835469645226882</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02438452310430653</v>
+        <v>0.02438452310430425</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.791015625</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.01224353855405624</v>
+        <v>-0.01224353855404201</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02368929619913168</v>
+        <v>0.02368929619912933</v>
       </c>
     </row>
     <row r="9">
@@ -532,7 +532,7 @@
         <v>0.80078125</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02815525626118642</v>
+        <v>0.0281552562612066</v>
       </c>
       <c r="C9" t="n">
         <v>0.02842110038494595</v>
@@ -543,7 +543,7 @@
         <v>1.34765625</v>
       </c>
       <c r="B10" t="n">
-        <v>67.61598756628119</v>
+        <v>67.61598756628111</v>
       </c>
       <c r="C10" t="n">
         <v>0.02732775464046979</v>
@@ -554,7 +554,7 @@
         <v>1.46484375</v>
       </c>
       <c r="B11" t="n">
-        <v>95.13140812809712</v>
+        <v>95.13140812809698</v>
       </c>
       <c r="C11" t="n">
         <v>0.03150653073505803</v>
@@ -565,10 +565,10 @@
         <v>1.298828125</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1378423355049989</v>
+        <v>0.1378423355051794</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03156703241003287</v>
+        <v>0.0315670324100276</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>1.015625</v>
       </c>
       <c r="B13" t="n">
-        <v>108.3070596894487</v>
+        <v>108.3070596894486</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03156419812311761</v>
+        <v>0.03156419812312113</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>1.103515625</v>
       </c>
       <c r="B14" t="n">
-        <v>106.9599910532501</v>
+        <v>106.9599910532504</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03152734246766244</v>
+        <v>0.0315273424676642</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>1.50390625</v>
       </c>
       <c r="B15" t="n">
-        <v>118.6335400275808</v>
+        <v>118.6335400275816</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03153439797252031</v>
+        <v>0.03153439797252208</v>
       </c>
     </row>
     <row r="16">
@@ -609,7 +609,7 @@
         <v>1.07421875</v>
       </c>
       <c r="B16" t="n">
-        <v>0.005947810341822901</v>
+        <v>0.005947810341812868</v>
       </c>
       <c r="C16" t="n">
         <v>0.03159210670600247</v>
@@ -620,10 +620,10 @@
         <v>1.240234375</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0003693309482741824</v>
+        <v>0.000369330948334538</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03158013783527483</v>
+        <v>0.0315801378352801</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>1.0546875</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3006075762057208</v>
+        <v>0.3006075762062968</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02403191410950602</v>
+        <v>0.02403191410950141</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>1.376953125</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0355026757170549</v>
+        <v>0.03550267571757386</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01913146170991014</v>
+        <v>0.01913146170991884</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>1.103515625</v>
       </c>
       <c r="B20" t="n">
-        <v>0.007063466982401678</v>
+        <v>0.007063466982529729</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03159475413278823</v>
+        <v>0.03159475413278647</v>
       </c>
     </row>
     <row r="21">
@@ -664,7 +664,7 @@
         <v>1.171875</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.01713512565584097</v>
+        <v>-0.0171351256557173</v>
       </c>
       <c r="C21" t="n">
         <v>0.03159325731142636</v>
@@ -675,7 +675,7 @@
         <v>0.849609375</v>
       </c>
       <c r="B22" t="n">
-        <v>48.2637908270143</v>
+        <v>48.26379082701509</v>
       </c>
       <c r="C22" t="n">
         <v>0.03144756698576637</v>
@@ -686,10 +686,10 @@
         <v>1.25</v>
       </c>
       <c r="B23" t="n">
-        <v>113.517770441729</v>
+        <v>113.5177704417292</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02966916080233158</v>
+        <v>0.02966916080232784</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>1.23046875</v>
       </c>
       <c r="B24" t="n">
-        <v>118.17179610902</v>
+        <v>118.1717961090201</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02878260298890706</v>
+        <v>0.02878260298890899</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>1.220703125</v>
       </c>
       <c r="B25" t="n">
-        <v>125.4702081004767</v>
+        <v>125.4702081004773</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0288227936506719</v>
+        <v>0.02882279365067575</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>0.68359375</v>
       </c>
       <c r="B26" t="n">
-        <v>214.1029333457861</v>
+        <v>214.1029333457858</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02764661978539342</v>
+        <v>0.02764661978539744</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>0.830078125</v>
       </c>
       <c r="B27" t="n">
-        <v>255.642957369741</v>
+        <v>255.6429573697409</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03160692664648132</v>
+        <v>0.03160692664648308</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>1.34765625</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.01693787652547485</v>
+        <v>-0.0169378765254453</v>
       </c>
       <c r="C28" t="n">
-        <v>0.03155039883051421</v>
+        <v>0.03155039883051949</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>1.455078125</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2527183615767967</v>
+        <v>0.2527183615770179</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02448789882627892</v>
+        <v>0.02448789882628119</v>
       </c>
     </row>
     <row r="30">
@@ -763,7 +763,7 @@
         <v>1.435546875</v>
       </c>
       <c r="B30" t="n">
-        <v>0.03169808224578219</v>
+        <v>0.03169808224617926</v>
       </c>
       <c r="C30" t="n">
         <v>0.01547601222477752</v>
@@ -774,7 +774,7 @@
         <v>1.376953125</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1223188702383595</v>
+        <v>-0.1223188702378459</v>
       </c>
       <c r="C31" t="n">
         <v>0.01599949617224582</v>
@@ -785,10 +785,10 @@
         <v>1.298828125</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.0863992781035563</v>
+        <v>-0.08639927810306071</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01805965536658983</v>
+        <v>0.01805965536658676</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>1.259765625</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1009422846136658</v>
+        <v>0.1009422846142324</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02611827086939084</v>
+        <v>0.02611827086938659</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>0.986328125</v>
       </c>
       <c r="B34" t="n">
-        <v>0.405966260337209</v>
+        <v>0.4059662603375784</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0315381954512249</v>
+        <v>0.03153819545122665</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>230.4519949278455</v>
       </c>
       <c r="C35" t="n">
-        <v>0.03135973929830822</v>
+        <v>0.03135973929829582</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>1.025390625</v>
       </c>
       <c r="B36" t="n">
-        <v>251.0682727483189</v>
+        <v>251.0682727483197</v>
       </c>
       <c r="C36" t="n">
-        <v>0.02800318266907213</v>
+        <v>0.0280031826690642</v>
       </c>
     </row>
     <row r="37">
@@ -840,7 +840,7 @@
         <v>1.015625</v>
       </c>
       <c r="B37" t="n">
-        <v>252.3414662427261</v>
+        <v>252.3414662427265</v>
       </c>
       <c r="C37" t="n">
         <v>0.02106288248727816</v>
@@ -851,10 +851,10 @@
         <v>1.044921875</v>
       </c>
       <c r="B38" t="n">
-        <v>252.6553477066128</v>
+        <v>252.6553477066131</v>
       </c>
       <c r="C38" t="n">
-        <v>0.02649035298878018</v>
+        <v>0.02649035298878228</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>1.005859375</v>
       </c>
       <c r="B39" t="n">
-        <v>256.5704908743262</v>
+        <v>256.5704908743266</v>
       </c>
       <c r="C39" t="n">
-        <v>0.02976834543461702</v>
+        <v>0.02976834543461515</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>1.0546875</v>
       </c>
       <c r="B40" t="n">
-        <v>252.9998885210909</v>
+        <v>252.9998885210911</v>
       </c>
       <c r="C40" t="n">
-        <v>0.02869371847908253</v>
+        <v>0.0286937184790864</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>1.064453125</v>
       </c>
       <c r="B41" t="n">
-        <v>239.9834322207721</v>
+        <v>239.9834322207723</v>
       </c>
       <c r="C41" t="n">
-        <v>0.03107397077947833</v>
+        <v>0.03107397077947296</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>1.201171875</v>
       </c>
       <c r="B42" t="n">
-        <v>111.9225182859414</v>
+        <v>111.9225182859415</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0308881148993568</v>
+        <v>0.03088811489936938</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>1.19140625</v>
       </c>
       <c r="B43" t="n">
-        <v>121.1086618484632</v>
+        <v>121.1086618484633</v>
       </c>
       <c r="C43" t="n">
-        <v>0.03148957326144222</v>
+        <v>0.03148957326143517</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>1.357421875</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02978490656843746</v>
+        <v>0.02978490656860237</v>
       </c>
       <c r="C44" t="n">
-        <v>0.03160090729146999</v>
+        <v>0.03160090729147878</v>
       </c>
     </row>
     <row r="45">
@@ -928,7 +928,7 @@
         <v>1.259765625</v>
       </c>
       <c r="B45" t="n">
-        <v>83.60304311670939</v>
+        <v>83.60304311670942</v>
       </c>
       <c r="C45" t="n">
         <v>0.03157159536654541</v>
@@ -939,10 +939,10 @@
         <v>1.455078125</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1739909390017829</v>
+        <v>-0.173990939001728</v>
       </c>
       <c r="C46" t="n">
-        <v>0.02221252683444338</v>
+        <v>0.02221252683444837</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>37.33602978261126</v>
       </c>
       <c r="C47" t="n">
-        <v>0.02931703935462337</v>
+        <v>0.02931703935461769</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>1.50390625</v>
       </c>
       <c r="B48" t="n">
-        <v>58.04798040783248</v>
+        <v>58.04798040783257</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02408984026856325</v>
+        <v>0.02408984026856555</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>1.474609375</v>
       </c>
       <c r="B49" t="n">
-        <v>74.81049165672493</v>
+        <v>74.81049165672519</v>
       </c>
       <c r="C49" t="n">
-        <v>0.02455627517974458</v>
+        <v>0.0245562751797491</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>1.513671875</v>
       </c>
       <c r="B50" t="n">
-        <v>87.22546475004992</v>
+        <v>87.22546475005045</v>
       </c>
       <c r="C50" t="n">
-        <v>0.02559319699843142</v>
+        <v>0.02559319699843359</v>
       </c>
     </row>
     <row r="51">
@@ -994,7 +994,7 @@
         <v>1.474609375</v>
       </c>
       <c r="B51" t="n">
-        <v>91.18789353246507</v>
+        <v>91.1878935324652</v>
       </c>
       <c r="C51" t="n">
         <v>0.02773964453596073</v>
@@ -1005,10 +1005,10 @@
         <v>0.64453125</v>
       </c>
       <c r="B52" t="n">
-        <v>105.2979750572181</v>
+        <v>105.2979750572179</v>
       </c>
       <c r="C52" t="n">
-        <v>0.03159950052361631</v>
+        <v>0.03159950052361279</v>
       </c>
     </row>
     <row r="53">
@@ -1027,10 +1027,10 @@
         <v>0.91796875</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01451635848018462</v>
+        <v>0.01451635848022076</v>
       </c>
       <c r="C54" t="n">
-        <v>0.02474809860945133</v>
+        <v>0.02474809860945582</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>0.908203125</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.008622370075407559</v>
+        <v>-0.008622370075384788</v>
       </c>
       <c r="C55" t="n">
-        <v>0.02558597209075155</v>
+        <v>0.02558597209075589</v>
       </c>
     </row>
     <row r="56">
@@ -1049,7 +1049,7 @@
         <v>1.30859375</v>
       </c>
       <c r="B56" t="n">
-        <v>0.002709563140513183</v>
+        <v>0.00270956314065624</v>
       </c>
       <c r="C56" t="n">
         <v>0.03160047762517405</v>
@@ -1060,10 +1060,10 @@
         <v>1.201171875</v>
       </c>
       <c r="B57" t="n">
-        <v>0.07303694384086157</v>
+        <v>0.07303694384102984</v>
       </c>
       <c r="C57" t="n">
-        <v>0.03157640867886217</v>
+        <v>0.03157640867885865</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>1.044921875</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9614285658279869</v>
+        <v>0.9614285658286986</v>
       </c>
       <c r="C58" t="n">
-        <v>0.02457553809341916</v>
+        <v>0.02457553809342593</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>0.673828125</v>
       </c>
       <c r="B59" t="n">
-        <v>230.4780949926164</v>
+        <v>230.4780949926167</v>
       </c>
       <c r="C59" t="n">
-        <v>0.03000334061943316</v>
+        <v>0.03000334061942946</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>0.68359375</v>
       </c>
       <c r="B60" t="n">
-        <v>226.9110338670559</v>
+        <v>226.911033867056</v>
       </c>
       <c r="C60" t="n">
-        <v>0.02750629400422997</v>
+        <v>0.0275062940042219</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>0.693359375</v>
       </c>
       <c r="B61" t="n">
-        <v>221.017862679377</v>
+        <v>221.0178626793765</v>
       </c>
       <c r="C61" t="n">
-        <v>0.02599054029914701</v>
+        <v>0.02599054029914487</v>
       </c>
     </row>
     <row r="62">
@@ -1118,7 +1118,7 @@
         <v>206.9928421251623</v>
       </c>
       <c r="C62" t="n">
-        <v>0.03133817039179646</v>
+        <v>0.03133817039180355</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>0.99609375</v>
       </c>
       <c r="B63" t="n">
-        <v>106.4845815342471</v>
+        <v>106.4845815342473</v>
       </c>
       <c r="C63" t="n">
-        <v>0.03048691595258084</v>
+        <v>0.03048691595257355</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>1.005859375</v>
       </c>
       <c r="B64" t="n">
-        <v>112.6180014486389</v>
+        <v>112.6180014486388</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0309751323804726</v>
+        <v>0.03097513238048873</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>1.025390625</v>
       </c>
       <c r="B65" t="n">
-        <v>26.05172083290847</v>
+        <v>26.05172083290848</v>
       </c>
       <c r="C65" t="n">
-        <v>0.02979062917641164</v>
+        <v>0.0297906291764135</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>0.966796875</v>
       </c>
       <c r="B66" t="n">
-        <v>33.87967552450829</v>
+        <v>33.87967552450839</v>
       </c>
       <c r="C66" t="n">
-        <v>0.02200599493077874</v>
+        <v>0.02200599493078126</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>0.91796875</v>
       </c>
       <c r="B67" t="n">
-        <v>38.73561645419994</v>
+        <v>38.73561645420034</v>
       </c>
       <c r="C67" t="n">
-        <v>0.02773955546318803</v>
+        <v>0.02773955546318403</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>0.87890625</v>
       </c>
       <c r="B68" t="n">
-        <v>27.37916393167245</v>
+        <v>27.37916393167293</v>
       </c>
       <c r="C68" t="n">
-        <v>0.03098627073361691</v>
+        <v>0.0309862707336205</v>
       </c>
     </row>
     <row r="69">
@@ -1192,7 +1192,7 @@
         <v>1.15234375</v>
       </c>
       <c r="B69" t="n">
-        <v>34.5524093676006</v>
+        <v>34.55240936760098</v>
       </c>
       <c r="C69" t="n">
         <v>0.03160285471667841</v>
@@ -1203,10 +1203,10 @@
         <v>1.474609375</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1624215374257574</v>
+        <v>0.1624215374260335</v>
       </c>
       <c r="C70" t="n">
-        <v>0.03156721869656298</v>
+        <v>0.03156721869655595</v>
       </c>
     </row>
     <row r="71">
@@ -1214,7 +1214,7 @@
         <v>1.26953125</v>
       </c>
       <c r="B71" t="n">
-        <v>0.04225787403962045</v>
+        <v>0.04225787403989211</v>
       </c>
       <c r="C71" t="n">
         <v>0.03151590823782237</v>
@@ -1225,10 +1225,10 @@
         <v>0.908203125</v>
       </c>
       <c r="B72" t="n">
-        <v>0.03205158674671793</v>
+        <v>0.03205158674680168</v>
       </c>
       <c r="C72" t="n">
-        <v>0.03160374779147281</v>
+        <v>0.03160374779147984</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1236,10 @@
         <v>1.083984375</v>
       </c>
       <c r="B73" t="n">
-        <v>0.02905038386069236</v>
+        <v>0.02905038386080297</v>
       </c>
       <c r="C73" t="n">
-        <v>0.03157808174740572</v>
+        <v>0.03157808174740924</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1247,10 @@
         <v>0.703125</v>
       </c>
       <c r="B74" t="n">
-        <v>262.9339120136385</v>
+        <v>262.9339120136393</v>
       </c>
       <c r="C74" t="n">
-        <v>0.03116754897842997</v>
+        <v>0.03116754897842641</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>0.72265625</v>
       </c>
       <c r="B75" t="n">
-        <v>247.9932150463487</v>
+        <v>247.9932150463482</v>
       </c>
       <c r="C75" t="n">
-        <v>0.03063156342972138</v>
+        <v>0.0306315634297105</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1269,10 @@
         <v>0.947265625</v>
       </c>
       <c r="B76" t="n">
-        <v>97.438845779345</v>
+        <v>97.43884577934527</v>
       </c>
       <c r="C76" t="n">
-        <v>0.03114317020306624</v>
+        <v>0.03114317020306446</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1280,10 @@
         <v>0.869140625</v>
       </c>
       <c r="B77" t="n">
-        <v>111.8685546206796</v>
+        <v>111.8685546206804</v>
       </c>
       <c r="C77" t="n">
-        <v>0.03134622163929304</v>
+        <v>0.0313462216392895</v>
       </c>
     </row>
     <row r="78">
@@ -1291,7 +1291,7 @@
         <v>1.2109375</v>
       </c>
       <c r="B78" t="n">
-        <v>109.708576919175</v>
+        <v>109.7085769191762</v>
       </c>
       <c r="C78" t="n">
         <v>0.03152856429902245</v>
@@ -1302,10 +1302,10 @@
         <v>1.474609375</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.751804220617714e-05</v>
+        <v>-1.751804215993106e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0316019988154393</v>
+        <v>0.03160199881544105</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>1.09375</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.8904657995886964</v>
+        <v>-0.890465799588014</v>
       </c>
       <c r="C80" t="n">
-        <v>0.02915552072785619</v>
+        <v>0.02915552072785429</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>1.09375</v>
       </c>
       <c r="B81" t="n">
-        <v>0.00165696872704757</v>
+        <v>0.001656968727191257</v>
       </c>
       <c r="C81" t="n">
-        <v>0.03160076872501532</v>
+        <v>0.03160076872502937</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>1.357421875</v>
       </c>
       <c r="B82" t="n">
-        <v>100.8165356474701</v>
+        <v>100.8165356474706</v>
       </c>
       <c r="C82" t="n">
-        <v>0.03078808611922998</v>
+        <v>0.03078808611921916</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>1.3671875</v>
       </c>
       <c r="B83" t="n">
-        <v>105.3824598805257</v>
+        <v>105.3824598805256</v>
       </c>
       <c r="C83" t="n">
-        <v>0.03079584867426821</v>
+        <v>0.03079584867427182</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>1.103515625</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.002913372551915927</v>
+        <v>-0.002913372551930229</v>
       </c>
       <c r="C84" t="n">
-        <v>0.03157526315392557</v>
+        <v>0.03157526315393436</v>
       </c>
     </row>
     <row r="85">
@@ -1368,7 +1368,7 @@
         <v>1.328125</v>
       </c>
       <c r="B85" t="n">
-        <v>103.7689699416587</v>
+        <v>103.768969941658</v>
       </c>
       <c r="C85" t="n">
         <v>0.03147283627385854</v>
@@ -1379,10 +1379,10 @@
         <v>0.869140625</v>
       </c>
       <c r="B86" t="n">
-        <v>207.7903499480855</v>
+        <v>207.7903499480857</v>
       </c>
       <c r="C86" t="n">
-        <v>0.03159903043516294</v>
+        <v>0.03159903043515591</v>
       </c>
     </row>
   </sheetData>
